--- a/PayRollApplication/src/main/resources/PayRollApplicationTestData.xlsx
+++ b/PayRollApplication/src/main/resources/PayRollApplicationTestData.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\SeleniumProject\PayRollApplication\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B476D61F-D33A-44CF-A0D3-887EB86986B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF62FA5-D1C0-43D0-B6F5-D4F3F43DF99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DAC75282-E3E3-47C2-8642-8AAD79AA884E}"/>
+    <workbookView xWindow="0" yWindow="2940" windowWidth="23040" windowHeight="8988" activeTab="2" xr2:uid="{DAC75282-E3E3-47C2-8642-8AAD79AA884E}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddClient" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId1"/>
+    <sheet name="AddClient" sheetId="1" r:id="rId2"/>
+    <sheet name="AddWorker" sheetId="4" r:id="rId3"/>
+    <sheet name="ClientSearch" sheetId="5" r:id="rId4"/>
+    <sheet name="Regression" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,15 +39,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Branch</t>
   </si>
   <si>
-    <t>Your Ref</t>
-  </si>
-  <si>
     <t>Invoice Order</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>carol</t>
+  </si>
+  <si>
+    <t>1q2w3e4r</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Testcase</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Alpha_new</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>Client Address</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>YourRef</t>
+  </si>
+  <si>
+    <t>InvoiceContact</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Company Reg</t>
+  </si>
+  <si>
+    <t>Invoice Delivery Method</t>
+  </si>
+  <si>
+    <t>Mastr Doc</t>
+  </si>
+  <si>
+    <t>Settlement Days</t>
+  </si>
+  <si>
+    <t>Vat Rate</t>
+  </si>
+  <si>
+    <t>NewAlpha</t>
+  </si>
+  <si>
+    <t>NewClient1</t>
+  </si>
+  <si>
+    <t>Client Address1</t>
+  </si>
+  <si>
+    <t>Create Client</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Known</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Mobile</t>
   </si>
 </sst>
 </file>
@@ -394,24 +524,333 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD830391-9999-4BF3-AAA7-AC6AA81E5E30}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0A02D1-78E7-4430-B83F-702D364B3F23}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD830391-9999-4BF3-AAA7-AC6AA81E5E30}">
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>12345</v>
+      </c>
+      <c r="H2">
+        <v>12345</v>
+      </c>
+      <c r="I2">
+        <v>12345</v>
+      </c>
+      <c r="J2">
+        <v>12345</v>
+      </c>
+      <c r="L2">
+        <v>12345</v>
+      </c>
+      <c r="M2">
+        <v>12345</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>12345</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC98D1B-011C-4BEF-A612-D2FDDB9FF8D6}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCE8E35-5E68-4A48-AB12-EDA94356AB89}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84686BDB-E5B9-494A-8AA4-5FACBA5488F8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
